--- a/Phase2.1FileDescriptions.xlsx
+++ b/Phase2.1FileDescriptions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWEBER\Desktop\4CEGitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWEBER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20085"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>LAB-LOINC</t>
   </si>
   <si>
-    <t>4CE Phase 2</t>
-  </si>
-  <si>
     <t>File #1: LocalPatientSummary.csv</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>The 4CE Phase 1.1 documentation defines the COVID-19 cohort and the various codes used in Phase 2.</t>
   </si>
   <si>
-    <t>Instructions for 4CE Phase 2</t>
-  </si>
-  <si>
     <t>Column names must be lower case because R is case sensitive.</t>
   </si>
   <si>
@@ -355,22 +349,28 @@
     <t>use "1/1/1900" if the patient is still in the hospital when this file is generated</t>
   </si>
   <si>
-    <t>The 4CE Phase 1.1 documentation is located at https://github.com/covidclinical/Phase1.1_SQL_extraction</t>
-  </si>
-  <si>
     <t>1) Obtain IRB approval to generate patient-level data files for internal use.</t>
   </si>
   <si>
     <t>2) Run the Phase 1.1 database script WITHOUT OBFUSCATION and save the six Phase 1.1 CSV files.</t>
   </si>
   <si>
-    <t>3) Run the Phase 2.0 database script. Note that it uses the temp tables created by the Phase 1.1 script.</t>
-  </si>
-  <si>
-    <t>4) Save the four new CSV files generated by the Phase 2.0 script.</t>
-  </si>
-  <si>
-    <t>5) Run Phase 2.0 R/Python analyses.</t>
+    <t>The 4CE Phase 1.1 documentation is located at https://github.com/covidclinical/Phase1.1SqlDataExtraction</t>
+  </si>
+  <si>
+    <t>5) Run Phase 2.1 R analyses.</t>
+  </si>
+  <si>
+    <t>4CE Phase 2.1</t>
+  </si>
+  <si>
+    <t>Instructions for 4CE Phase 2.1</t>
+  </si>
+  <si>
+    <t>3) Run the Phase 2.1 database script. Note that it uses the temp tables created by the Phase 1.1 script.</t>
+  </si>
+  <si>
+    <t>4) Save the four new CSV files generated by the Phase 2.1 script.</t>
   </si>
 </sst>
 </file>
@@ -824,12 +824,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>44063</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -851,7 +851,7 @@
     </row>
     <row r="5" spans="1:12" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -867,7 +867,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -899,7 +899,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -931,32 +931,32 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
     </row>
     <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1076,22 +1076,22 @@
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -1106,12 +1106,12 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1513,7 +1513,7 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
